--- a/WisdomTest/JAVA勉強スケジュール(201607_09)＿新.xlsx
+++ b/WisdomTest/JAVA勉強スケジュール(201607_09)＿新.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
+    <sheet name="別紙" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>■目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -732,17 +733,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -753,8 +751,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,15 +921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:rowOff>560070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>441960</xdr:rowOff>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -937,13 +938,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5669280" y="20756880"/>
-          <a:ext cx="1912620" cy="899160"/>
+          <a:off x="5848350" y="21524595"/>
+          <a:ext cx="1704975" cy="725805"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -84180"/>
-            <a:gd name="adj2" fmla="val 32839"/>
+            <a:gd name="adj1" fmla="val -112267"/>
+            <a:gd name="adj2" fmla="val 84904"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2944,10 +2945,10 @@
       <c r="C116" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="D116" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="12"/>
+      <c r="E116" s="16"/>
     </row>
     <row r="117" spans="1:9" ht="85.15" customHeight="1">
       <c r="B117" s="7">
@@ -2956,10 +2957,10 @@
       <c r="C117" s="8">
         <v>42574</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E117" s="11"/>
+      <c r="E117" s="12"/>
     </row>
     <row r="118" spans="1:9" ht="75" customHeight="1">
       <c r="B118" s="7">
@@ -2968,10 +2969,10 @@
       <c r="C118" s="8">
         <v>42581</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E118" s="13"/>
+      <c r="E118" s="17"/>
     </row>
     <row r="119" spans="1:9" ht="94.15" customHeight="1">
       <c r="B119" s="7">
@@ -2980,10 +2981,10 @@
       <c r="C119" s="8">
         <v>42588</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E119" s="11"/>
+      <c r="E119" s="12"/>
       <c r="G119" t="s">
         <v>19</v>
       </c>
@@ -2995,10 +2996,10 @@
       <c r="C120" s="8">
         <v>42595</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E120" s="11"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="121" spans="1:9" ht="50.25" customHeight="1">
       <c r="B121" s="7">
@@ -3007,10 +3008,10 @@
       <c r="C121" s="8">
         <v>42602</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E121" s="11"/>
+      <c r="E121" s="12"/>
       <c r="G121" t="s">
         <v>15</v>
       </c>
@@ -3025,10 +3026,10 @@
       <c r="C122" s="8">
         <v>42609</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E122" s="11"/>
+      <c r="E122" s="12"/>
       <c r="G122" s="9" t="s">
         <v>26</v>
       </c>
@@ -3040,10 +3041,10 @@
       <c r="C123" s="8">
         <v>42616</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="11"/>
+      <c r="E123" s="12"/>
     </row>
     <row r="124" spans="1:9" ht="64.900000000000006" customHeight="1">
       <c r="B124" s="7">
@@ -3052,10 +3053,10 @@
       <c r="C124" s="8">
         <v>42623</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E124" s="11"/>
+      <c r="E124" s="12"/>
       <c r="H124" s="9" t="s">
         <v>24</v>
       </c>
@@ -3067,22 +3068,22 @@
       <c r="C125" s="8">
         <v>42630</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E125" s="16"/>
-    </row>
-    <row r="126" spans="1:9" ht="13.5" customHeight="1">
+      <c r="E125" s="15"/>
+    </row>
+    <row r="126" spans="1:9" ht="31.5" customHeight="1">
       <c r="B126" s="7">
         <v>10</v>
       </c>
       <c r="C126" s="8">
         <v>42637</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E126" s="11"/>
+      <c r="E126" s="12"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1"/>
@@ -3111,22 +3112,22 @@
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="17" t="s">
+      <c r="B216" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="301" spans="2:2">
-      <c r="B301" s="17" t="s">
+      <c r="B301" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="386" spans="2:2">
-      <c r="B386" s="17" t="s">
+      <c r="B386" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="511" spans="2:2">
-      <c r="B511" s="17" t="s">
+      <c r="B511" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3137,17 +3138,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D122:E122"/>
     <mergeCell ref="D121:E121"/>
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="D118:E118"/>
     <mergeCell ref="D119:E119"/>
     <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D122:E122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3157,4 +3158,171 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="2:5" ht="70.5" customHeight="1">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>42574</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="2:5" ht="76.5" customHeight="1">
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42581</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="2:5" ht="95.25" customHeight="1">
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>42588</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="2:5" ht="93" customHeight="1">
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>42595</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="2:5" ht="71.25" customHeight="1">
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>42602</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="2:5" ht="148.5" customHeight="1">
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>42609</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="2:5" ht="51" customHeight="1">
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>42616</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="2:5" ht="67.5" customHeight="1">
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>42623</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="2:5" ht="54.75" customHeight="1">
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>42630</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42637</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>